--- a/models/Brazil.xlsx
+++ b/models/Brazil.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">Location</t>
   </si>
@@ -48,154 +48,151 @@
     <t xml:space="preserve">State of Alagoas</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15L</t>
+    <t xml:space="preserve">2.15</t>
   </si>
   <si>
     <t xml:space="preserve">State of Amapá</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17L</t>
+    <t xml:space="preserve">1.17</t>
   </si>
   <si>
     <t xml:space="preserve">State of Amazonas</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01L</t>
+    <t xml:space="preserve">4.01</t>
   </si>
   <si>
     <t xml:space="preserve">State of Bahia</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2L</t>
+    <t xml:space="preserve">11.2</t>
   </si>
   <si>
     <t xml:space="preserve">State of Ceará</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8L</t>
+    <t xml:space="preserve">8.8</t>
   </si>
   <si>
     <t xml:space="preserve">State of Espírito Santo</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15L</t>
+    <t xml:space="preserve">5.15</t>
   </si>
   <si>
     <t xml:space="preserve">State of Goiás</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71L</t>
+    <t xml:space="preserve">6.71</t>
   </si>
   <si>
     <t xml:space="preserve">State of Maranhão</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15L</t>
+    <t xml:space="preserve">3.15</t>
   </si>
   <si>
     <t xml:space="preserve">State of Mato Grosso</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46L</t>
+    <t xml:space="preserve">4.46</t>
   </si>
   <si>
     <t xml:space="preserve">State of Mato Grosso do Sul</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33L</t>
+    <t xml:space="preserve">3.33</t>
   </si>
   <si>
     <t xml:space="preserve">State of Minas Gerais</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9L</t>
+    <t xml:space="preserve">17.9</t>
   </si>
   <si>
     <t xml:space="preserve">State of Paraná</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7L</t>
+    <t xml:space="preserve">12.7</t>
   </si>
   <si>
     <t xml:space="preserve">State of Paraíba</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92L</t>
+    <t xml:space="preserve">3.92</t>
   </si>
   <si>
     <t xml:space="preserve">State of Pará</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5L</t>
+    <t xml:space="preserve">5.5</t>
   </si>
   <si>
     <t xml:space="preserve">State of Pernambuco</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47L</t>
+    <t xml:space="preserve">5.47</t>
   </si>
   <si>
     <t xml:space="preserve">State of Piauí</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95L</t>
+    <t xml:space="preserve">2.95</t>
   </si>
   <si>
     <t xml:space="preserve">State of Rio Grande do Norte</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36L</t>
+    <t xml:space="preserve">3.36</t>
   </si>
   <si>
     <t xml:space="preserve">State of Rio Grande do Sul</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1L</t>
+    <t xml:space="preserve">12.1</t>
   </si>
   <si>
     <t xml:space="preserve">State of Rio de Janeiro</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51L</t>
+    <t xml:space="preserve">9.51</t>
   </si>
   <si>
     <t xml:space="preserve">State of Rondônia</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47L</t>
+    <t xml:space="preserve">2.47</t>
   </si>
   <si>
     <t xml:space="preserve">State of Roraima</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12L</t>
+    <t xml:space="preserve">1.12</t>
   </si>
   <si>
     <t xml:space="preserve">State of Santa Catarina</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5L</t>
+    <t xml:space="preserve">10.5</t>
   </si>
   <si>
     <t xml:space="preserve">State of Sergipe</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62L</t>
+    <t xml:space="preserve">2.62</t>
   </si>
   <si>
     <t xml:space="preserve">State of São Paulo</t>
   </si>
   <si>
-    <t xml:space="preserve">37L</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.26L</t>
   </si>
   <si>
     <t xml:space="preserve">State of Tocantins</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97L</t>
+    <t xml:space="preserve">1.97</t>
   </si>
   <si>
     <t xml:space="preserve">'</t>
@@ -316,7 +313,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="9" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="12" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -415,7 +412,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -795,11 +792,11 @@
       <c r="A27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>3.4</v>
@@ -807,10 +804,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="C28" s="5" t="n">
         <v>3179</v>
@@ -821,7 +818,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
